--- a/potential cup with a handle.xlsx
+++ b/potential cup with a handle.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIST" sheetId="1" r:id="rId1"/>
     <sheet name="AEIS" sheetId="2" r:id="rId2"/>
     <sheet name="LGIH" sheetId="3" r:id="rId3"/>
     <sheet name="SGC" sheetId="5" r:id="rId4"/>
+    <sheet name="KNSL" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -362,14 +363,14 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,11 +760,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="G2" t="s">
         <v>29</v>
       </c>
@@ -778,7 +779,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>42895</v>
       </c>
     </row>
@@ -786,7 +787,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>80.69</v>
       </c>
     </row>
@@ -805,7 +806,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>65.8</v>
       </c>
     </row>
@@ -816,7 +817,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>43014</v>
       </c>
     </row>
@@ -824,7 +825,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>83.29</v>
       </c>
     </row>
@@ -835,7 +836,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>42950</v>
       </c>
     </row>
@@ -843,7 +844,7 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>35.1</v>
       </c>
     </row>
@@ -862,7 +863,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>30.48</v>
       </c>
     </row>
@@ -873,7 +874,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>42983</v>
       </c>
     </row>
@@ -881,17 +882,17 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>33.979999999999997</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -908,7 +909,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>($D$7-$D$3)/7</f>
         <v>17</v>
       </c>
@@ -924,7 +925,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>($D$13-$D$9)/7</f>
         <v>4.7142857142857144</v>
       </c>
@@ -969,7 +970,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22">
@@ -989,7 +990,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
@@ -1004,7 +1005,7 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
@@ -1016,10 +1017,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
@@ -1031,10 +1032,10 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
@@ -1079,11 +1080,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="H2" t="s">
         <v>29</v>
       </c>
@@ -1098,7 +1099,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>42955</v>
       </c>
     </row>
@@ -1106,7 +1107,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>48.48</v>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>41.09</v>
       </c>
     </row>
@@ -1136,7 +1137,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>43014</v>
       </c>
     </row>
@@ -1144,7 +1145,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>52.28</v>
       </c>
     </row>
@@ -1155,7 +1156,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>42950</v>
       </c>
     </row>
@@ -1163,7 +1164,7 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>35.1</v>
       </c>
     </row>
@@ -1182,7 +1183,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>30.48</v>
       </c>
     </row>
@@ -1193,7 +1194,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>42983</v>
       </c>
     </row>
@@ -1201,17 +1202,17 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>33.979999999999997</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -1228,7 +1229,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>($D$7-$D$3)/7</f>
         <v>8.4285714285714288</v>
       </c>
@@ -1244,7 +1245,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>($D$13-$D$9)/7</f>
         <v>4.7142857142857144</v>
       </c>
@@ -1289,7 +1290,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22">
@@ -1309,7 +1310,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
@@ -1324,7 +1325,7 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
@@ -1336,10 +1337,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
@@ -1351,10 +1352,10 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
@@ -1387,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69885284-9B93-40BB-AE12-E4FBD79EE8E5}">
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1399,11 +1400,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1412,7 +1413,7 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>42719</v>
       </c>
     </row>
@@ -1420,7 +1421,7 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>19.66</v>
       </c>
     </row>
@@ -1439,7 +1440,7 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>16.96</v>
       </c>
     </row>
@@ -1450,7 +1451,7 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>42915</v>
       </c>
     </row>
@@ -1458,7 +1459,7 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>22.49</v>
       </c>
     </row>
@@ -1469,7 +1470,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>42915</v>
       </c>
     </row>
@@ -1477,7 +1478,7 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>22.49</v>
       </c>
     </row>
@@ -1496,7 +1497,7 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>21.79</v>
       </c>
     </row>
@@ -1507,7 +1508,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>42996</v>
       </c>
     </row>
@@ -1515,17 +1516,17 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>23.01</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
@@ -1542,7 +1543,7 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <f>($D$7-$D$3)/7</f>
         <v>28</v>
       </c>
@@ -1558,7 +1559,7 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>($D$13-$D$9)/7</f>
         <v>11.571428571428571</v>
       </c>
@@ -1603,7 +1604,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C22">
@@ -1623,7 +1624,7 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D23" t="s">
@@ -1638,7 +1639,7 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
@@ -1650,10 +1651,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="s">
@@ -1665,10 +1666,10 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
@@ -1695,4 +1696,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226779C2-5B23-4E76-818E-505EF2083B8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>